--- a/Relatórios/Consumo 29-05 a 26-06.xlsx
+++ b/Relatórios/Consumo 29-05 a 26-06.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repositorios\ConsumoDeTinta\Relatórios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A51DDC0-DBEE-448D-A016-DE02E5DB95F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25461A07-D579-4069-AD24-31F0E6F1EE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -55,6 +54,12 @@
   <si>
     <t>29/05 a 26/06</t>
   </si>
+  <si>
+    <t>Gasto Semanal</t>
+  </si>
+  <si>
+    <t>Média de gasto</t>
+  </si>
 </sst>
 </file>
 
@@ -63,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ &quot;mL&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +83,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +121,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC34D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,52 +154,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFC34D1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -188,6 +297,1072 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Consumo de Tintas de 29/05 a</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 26/06</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11538670166229222"/>
+          <c:y val="0.15782407407407409"/>
+          <c:w val="0.85405774278215218"/>
+          <c:h val="0.73477653834937295"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tintas e média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FC34D1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-39FD-44AD-83E1-1C53FC477122}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-39FD-44AD-83E1-1C53FC477122}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-39FD-44AD-83E1-1C53FC477122}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-39FD-44AD-83E1-1C53FC477122}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-39FD-44AD-83E1-1C53FC477122}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-39FD-44AD-83E1-1C53FC477122}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-39FD-44AD-83E1-1C53FC477122}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>M</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>C</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>A</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>P</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>B1</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>B2</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Média</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Plan1!$C$7,Plan1!$E$7,Plan1!$G$7,Plan1!$I$7,Plan1!$K$7,Plan1!$M$7,Plan1!$O$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "mL"</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39FD-44AD-83E1-1C53FC477122}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1695635728"/>
+        <c:axId val="1695627408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1695635728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695627408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1695627408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0\ &quot;mL&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695635728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>277092</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79C6510-70A7-47AE-BF13-92ADF4A4CCD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,339 +1631,375 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="10"/>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="10"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="10"/>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="10"/>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="4"/>
+      <c r="O1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="23">
         <v>45075.45</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="20">
         <v>0.42</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="21">
         <f>B2 * 600 / 100 *100</f>
         <v>252</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="20">
         <v>0.97</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="21">
         <f>D2 * 600 / 100 * 100</f>
         <v>582</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="21">
         <f>F2 * 600 / 100 * 100</f>
         <v>330</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="20">
         <v>0.32</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="21">
         <f>H2 * 600 / 100 * 100</f>
         <v>192</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="20">
         <v>0.93</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="21">
         <f>J2 * 600 / 100 * 100</f>
         <v>558</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="20">
         <v>0.22</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="21">
         <f>L2 * 600 / 100 * 100</f>
         <v>132</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="21">
         <f>C2+E2+G2+I2+K2+M2</f>
         <v>2046</v>
       </c>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="24">
         <v>45083.338888888888</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="17">
         <v>0.38</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="18">
         <f>B3 * 600 / 100 *100</f>
         <v>227.99999999999997</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="17">
         <v>0.92</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="18">
         <f>D3 * 600 / 100 * 100</f>
         <v>552</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="17">
         <v>0.51</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="18">
         <f>F3 * 600 / 100 * 100</f>
         <v>306</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="17">
         <v>0.27</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="18">
         <f>H3 * 600 / 100 * 100</f>
         <v>162</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="17">
         <v>0.84</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="18">
         <f>J3 * 600 / 100 * 100</f>
         <v>504</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="17">
         <v>0.18</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="18">
         <f>L3 * 600 / 100 * 100</f>
         <v>108</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="18">
         <f>C3+E3+G3+I3+K3+M3</f>
         <v>1860</v>
       </c>
+      <c r="O3" s="18">
+        <f>N2-N3</f>
+        <v>186</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="23">
         <v>45089.591666666667</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="20">
         <v>0.35</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="21">
         <f>B4 * 600 / 100 *100</f>
         <v>210</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="20">
         <v>0.9</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="21">
         <f>D4 * 600 / 100 * 100</f>
         <v>540</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="20">
         <v>0.49</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="21">
         <f>F4 * 600 / 100 * 100</f>
         <v>294</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="20">
         <v>0.25</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="21">
         <f>H4 * 600 / 100 * 100</f>
         <v>150</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="20">
         <v>0.82</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="21">
         <f>J4 * 600 / 100 * 100</f>
         <v>491.99999999999989</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="20">
         <v>0.15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="21">
         <f>L4 * 600 / 100 * 100</f>
         <v>90</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="21">
         <f>C4+E4+G4+I4+K4+M4</f>
         <v>1776</v>
       </c>
+      <c r="O4" s="21">
+        <f>N3-N4</f>
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="17">
         <v>0.31</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="18">
         <f>B5 * 600 / 100 *100</f>
         <v>186</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="17">
         <v>0.86</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="18">
         <f>D5 * 600 / 100 *100</f>
         <v>516</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="17">
         <v>0.45</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="18">
         <f>F5 * 600 / 100 *100</f>
         <v>270</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="17">
         <v>0.21</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="18">
         <f>H5 * 600 / 100 *100</f>
         <v>126</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="17">
         <v>0.75</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="18">
         <f>J5 * 600 / 100 *100</f>
         <v>450</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="17">
         <v>0.11</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="18">
         <f>L5 * 600 / 100 *100</f>
         <v>66</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="18">
         <f>C5+E5+G5+I5+K5+M5</f>
         <v>1614</v>
       </c>
+      <c r="O5" s="18">
+        <f t="shared" ref="O4:O6" si="0">N4-N5</f>
+        <v>162</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="20">
         <v>0.3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="21">
         <f>B6 * 600 / 100 *100</f>
         <v>180</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="20">
         <v>0.84</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="21">
         <f>D6 * 600 / 100 *100</f>
         <v>504</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="20">
         <v>0.44</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="21">
         <f>F6 * 600 / 100 *100</f>
         <v>264</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="20">
         <v>0.2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="21">
         <f>H6 * 600 / 100 *100</f>
         <v>120</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="20">
         <v>0.71</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="21">
         <f>J6 * 600 / 100 *100</f>
         <v>426</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="20">
         <v>0.01</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="21">
         <f>L6 * 600 / 100 *100</f>
         <v>6</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="21">
         <f>C6+E6+G6+I6+K6+M6</f>
         <v>1500</v>
       </c>
+      <c r="O6" s="22">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="28">
         <f>C2 - C6</f>
         <v>72</v>
       </c>
-      <c r="E7" s="8">
+      <c r="D7" s="6"/>
+      <c r="E7" s="29">
         <f>E2 - E6</f>
         <v>78</v>
       </c>
-      <c r="G7" s="8">
+      <c r="F7" s="6"/>
+      <c r="G7" s="30">
         <f>G2 - G6</f>
         <v>66</v>
       </c>
-      <c r="I7" s="8">
+      <c r="H7" s="6"/>
+      <c r="I7" s="31">
         <f>I2 - I6</f>
         <v>72</v>
       </c>
-      <c r="K7" s="8">
+      <c r="J7" s="6"/>
+      <c r="K7" s="5">
         <f>K2 - K6</f>
         <v>132</v>
       </c>
-      <c r="M7" s="8">
+      <c r="L7" s="6"/>
+      <c r="M7" s="5">
         <f>M2 - M6</f>
         <v>126</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="16">
         <f>N2 - N6</f>
         <v>546</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="33">
+        <f>AVERAGE(O3:O6)</f>
+        <v>136.5</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +2011,8 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>